--- a/practice12/Рейтинг.xlsx
+++ b/practice12/Рейтинг.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.5</v>
+        <v>21.66161616161616</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.5</v>
+        <v>21.66161616161616</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>20.58080808080808</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.94444444444444</v>
+        <v>20.46717171717172</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.86111111111111</v>
+        <v>20.41287878787879</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.66666666666666</v>
+        <v>20.24747474747475</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.55555555555556</v>
+        <v>20.07828282828283</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.41666666666667</v>
+        <v>19.91035353535354</v>
       </c>
     </row>
     <row r="10">
@@ -532,17 +532,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.27777777777778</v>
+        <v>19.56818181818182</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Лобанова</t>
+          <t>Мельникова</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.66666666666667</v>
+        <v>19.35479797979798</v>
       </c>
     </row>
     <row r="12">
@@ -552,17 +552,17 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18.61111111111111</v>
+        <v>19.19191919191919</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Мельникова</t>
+          <t>Лобанова</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18.22222222222222</v>
+        <v>18.98611111111111</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17.38888888888889</v>
+        <v>17.67929292929293</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.02777777777778</v>
+        <v>17.52146464646465</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.77777777777778</v>
+        <v>16.32954545454546</v>
       </c>
     </row>
     <row r="17">
@@ -602,37 +602,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15.52777777777778</v>
+        <v>16.07954545454545</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Гордеева</t>
+          <t>Прохорова</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15</v>
+        <v>15.02146464646465</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Сафонов</t>
+          <t>Гордеева</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14.94444444444444</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Прохорова</t>
+          <t>Сафонов</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>14.52777777777778</v>
+        <v>14.94444444444444</v>
       </c>
     </row>
     <row r="21">
@@ -642,37 +642,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>12.38888888888889</v>
+        <v>12.79545454545454</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Молчанова</t>
+          <t>Винокурова</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>12.27777777777778</v>
+        <v>12.41035353535354</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Винокурова</t>
+          <t>Павлова</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11.91666666666667</v>
+        <v>12.38636363636364</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Павлова</t>
+          <t>Молчанова</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11.80555555555556</v>
+        <v>12.27777777777778</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.97222222222222</v>
+        <v>11.46590909090909</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10.30555555555556</v>
+        <v>10.68308080808081</v>
       </c>
     </row>
     <row r="27">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7.805555555555555</v>
+        <v>8.125</v>
       </c>
     </row>
     <row r="29">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.555555555555555</v>
+        <v>7.136363636363637</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.555555555555555</v>
+        <v>7.136363636363637</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.527777777777778</v>
+        <v>7.079545454545455</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.361111111111111</v>
+        <v>6.738636363636363</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.027777777777778</v>
+        <v>6.579545454545455</v>
       </c>
     </row>
     <row r="36">
